--- a/order_generation/PO_excel_selected/17-A1KN-KJGW.xlsx
+++ b/order_generation/PO_excel_selected/17-A1KN-KJGW.xlsx
@@ -15,9 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0&quot;PCS&quot;"/>
     <numFmt numFmtId="165" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -256,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -421,6 +422,9 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -522,7 +526,7 @@
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -569,7 +573,7 @@
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="email" r:embed="rId5"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="email" r:embed="rId6"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -616,7 +620,7 @@
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="email" r:embed="rId6"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="email" r:embed="rId7"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -663,7 +667,7 @@
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -710,7 +714,7 @@
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -751,7 +755,7 @@
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -792,7 +796,7 @@
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -833,7 +837,7 @@
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -874,7 +878,7 @@
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1016,13 +1020,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1380,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -1544,8 +1551,8 @@
           <t>白色针+黑色（TPR）胶皮参考denman样品，手柄571U透明弹性漆，背面印白色logo 包装方式：纸卡包装系扎带，包装背面贴fba不干胶，套opp袋，注意单箱不要超过100个</t>
         </is>
       </c>
-      <c r="D7" s="59" t="n">
-        <v>0</v>
+      <c r="D7" s="61" t="n">
+        <v>25569.33333333333</v>
       </c>
       <c r="E7" s="60" t="n">
         <v>5.14</v>
@@ -1864,16 +1871,9 @@
     <row r="34" ht="21" customFormat="1" customHeight="1" s="6">
       <c r="H34" s="15" t="n"/>
     </row>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
     <row r="38">
       <c r="H38" s="15" t="n"/>
     </row>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="11" t="n"/>
       <c r="B43" s="13" t="n"/>
@@ -1974,7 +1974,6 @@
       <c r="A67" s="11" t="n"/>
       <c r="B67" s="13" t="n"/>
     </row>
-    <row r="68"/>
     <row r="69" ht="17.25" customHeight="1">
       <c r="B69" s="9" t="inlineStr">
         <is>
@@ -2006,42 +2005,25 @@
       </c>
       <c r="F70" s="14" t="n"/>
     </row>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
     <row r="80">
       <c r="H80" s="15" t="n"/>
     </row>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.393700787401575" right="0.393700787401575" top="0.78740157480315" bottom="0.590551181102362" header="0.511811023622047" footer="0.511811023622047"/>
